--- a/medicine/Handicap/Martine_Kempf/Martine_Kempf.xlsx
+++ b/medicine/Handicap/Martine_Kempf/Martine_Kempf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martine Kempf, née le 9 décembre 1958[1] à Strasbourg, est une scientifique et femme d'affaires française. Elle est notamment l'inventeur du Katalavox.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martine Kempf, née le 9 décembre 1958 à Strasbourg, est une scientifique et femme d'affaires française. Elle est notamment l'inventeur du Katalavox.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fait ses études en Allemagne dans une école Steiner de la Ruhr, parce que le lycée de secteur qui accueille ses deux frères, le lycée Kléber, n'accueille pas encore de filles[2]. Elle passe son baccalauréat à Athènes en 1980. Martine Kempf a passé son brevet de pilote d'avion en 1982. Elle joue de plusieurs instruments de musique (le piano, le basson en orchestre, le violon qu'elle présente à une épreuve du bac) et est passionnée de mathématiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fait ses études en Allemagne dans une école Steiner de la Ruhr, parce que le lycée de secteur qui accueille ses deux frères, le lycée Kléber, n'accueille pas encore de filles. Elle passe son baccalauréat à Athènes en 1980. Martine Kempf a passé son brevet de pilote d'avion en 1982. Elle joue de plusieurs instruments de musique (le piano, le basson en orchestre, le violon qu'elle présente à une épreuve du bac) et est passionnée de mathématiques.
 L'électronique reste pour elle un hobby, mais elle crée néanmoins sa première invention dès le début des années 1980.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Invention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle met au point avec ses seuls moyens, au début des années 1980, un mini-ordinateur à commandes vocales, le Katalavox, un appareillage de reconnaissance vocale, destiné tout d'abord à venir en aide aux handicapés, mais dont les applications se révèlent multiples, notamment dans la microchirurgie.
-En 1985, deux articles dans Libération[3] et L'Événement du jeudi relatent le peu d'efficacité du Katalavox . Ainsi selon l'ANVAR et le CNET,  l'efficacité du Katalavox est estimée à 77 %, contre 99 % pour les appareils concurrents[4],[5].
+En 1985, deux articles dans Libération et L'Événement du jeudi relatent le peu d'efficacité du Katalavox . Ainsi selon l'ANVAR et le CNET,  l'efficacité du Katalavox est estimée à 77 %, contre 99 % pour les appareils concurrents,.
 </t>
         </is>
       </c>
